--- a/state_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
+++ b/state_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U210"/>
+  <dimension ref="A1:U230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96449558768293</v>
+        <v>1.96331059344593</v>
       </c>
       <c r="H2" t="n">
-        <v>8.849363218170961</v>
+        <v>8.81262839682379</v>
       </c>
       <c r="I2" t="n">
         <v>3.4825</v>
@@ -651,7 +651,7 @@
         <v>0.017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0419900851102296</v>
+        <v>0.0419924576424377</v>
       </c>
       <c r="H3" t="n">
         <v>0.381</v>
@@ -732,7 +732,7 @@
         <v>0.017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0419900851102296</v>
+        <v>0.0419924576424377</v>
       </c>
       <c r="H4" t="n">
         <v>0.381</v>
@@ -1153,7 +1153,7 @@
         <v>0.00746</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09214684804867419</v>
+        <v>0.0921786948762133</v>
       </c>
       <c r="H9" t="n">
         <v>2.75983290749729</v>
@@ -1234,7 +1234,7 @@
         <v>0.00746</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09214684804867419</v>
+        <v>0.0921786948762133</v>
       </c>
       <c r="H10" t="n">
         <v>2.75983290749729</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.97</v>
+        <v>0.9705</v>
       </c>
       <c r="G13" t="n">
-        <v>1.1425306122449</v>
+        <v>1.14253265306122</v>
       </c>
       <c r="H13" t="n">
         <v>4.038</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.802</v>
+        <v>0.8015</v>
       </c>
       <c r="M13" t="n">
         <v>1.37802</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.97</v>
+        <v>0.9705</v>
       </c>
       <c r="G14" t="n">
-        <v>1.1425306122449</v>
+        <v>1.14253265306122</v>
       </c>
       <c r="H14" t="n">
         <v>4.038</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.802</v>
+        <v>0.8015</v>
       </c>
       <c r="M14" t="n">
         <v>1.37802</v>
@@ -1781,7 +1781,7 @@
         <v>0.028</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08050016102579691</v>
+        <v>0.08050373363764859</v>
       </c>
       <c r="H17" t="n">
         <v>0.6820000000000001</v>
@@ -1858,7 +1858,7 @@
         <v>0.028</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08050016102579691</v>
+        <v>0.08050373363764859</v>
       </c>
       <c r="H18" t="n">
         <v>0.6820000000000001</v>
@@ -2020,7 +2020,7 @@
         <v>0.01</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0385716526546905</v>
+        <v>0.0385747287083471</v>
       </c>
       <c r="H20" t="n">
         <v>0.381</v>
@@ -2101,7 +2101,7 @@
         <v>0.01</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0385716526546905</v>
+        <v>0.0385747287083471</v>
       </c>
       <c r="H21" t="n">
         <v>0.381</v>
@@ -2522,7 +2522,7 @@
         <v>0.00839</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0926845996350549</v>
+        <v>0.09270529979511161</v>
       </c>
       <c r="H26" t="n">
         <v>2.75983290749729</v>
@@ -2603,7 +2603,7 @@
         <v>0.00839</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0926845996350549</v>
+        <v>0.09270529979511161</v>
       </c>
       <c r="H27" t="n">
         <v>2.75983290749729</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.9321</v>
       </c>
       <c r="G30" t="n">
-        <v>1.08926</v>
+        <v>1.089246</v>
       </c>
       <c r="H30" t="n">
         <v>4.038</v>
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.9321</v>
       </c>
       <c r="G31" t="n">
-        <v>1.08926</v>
+        <v>1.089246</v>
       </c>
       <c r="H31" t="n">
         <v>4.038</v>
@@ -3150,7 +3150,7 @@
         <v>0.023</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07733015780528089</v>
+        <v>0.07733365896489559</v>
       </c>
       <c r="H34" t="n">
         <v>0.6820000000000001</v>
@@ -3227,7 +3227,7 @@
         <v>0.023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07733015780528089</v>
+        <v>0.07733365896489559</v>
       </c>
       <c r="H35" t="n">
         <v>0.6820000000000001</v>
@@ -3389,7 +3389,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0256033820876764</v>
+        <v>0.0256062302855065</v>
       </c>
       <c r="H37" t="n">
         <v>0.381</v>
@@ -3470,7 +3470,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0256033820876764</v>
+        <v>0.0256062302855065</v>
       </c>
       <c r="H38" t="n">
         <v>0.381</v>
@@ -3891,7 +3891,7 @@
         <v>0.00717</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0867587295683787</v>
+        <v>0.08677823548843221</v>
       </c>
       <c r="H43" t="n">
         <v>2.75983290749729</v>
@@ -3972,7 +3972,7 @@
         <v>0.00717</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0867587295683787</v>
+        <v>0.08677823548843221</v>
       </c>
       <c r="H44" t="n">
         <v>2.75983290749729</v>
@@ -4208,10 +4208,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8665</v>
+        <v>0.8667</v>
       </c>
       <c r="G47" t="n">
-        <v>1.0275</v>
+        <v>1.0275037037037</v>
       </c>
       <c r="H47" t="n">
         <v>4.038</v>
@@ -4222,10 +4222,10 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.5725</v>
+        <v>0.5728</v>
       </c>
       <c r="M47" t="n">
-        <v>1.36192</v>
+        <v>1.36195</v>
       </c>
       <c r="N47" t="n">
         <v>1.73876</v>
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8665</v>
+        <v>0.8667</v>
       </c>
       <c r="G48" t="n">
-        <v>1.0275</v>
+        <v>1.0275037037037</v>
       </c>
       <c r="H48" t="n">
         <v>4.038</v>
@@ -4299,10 +4299,10 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.5725</v>
+        <v>0.5728</v>
       </c>
       <c r="M48" t="n">
-        <v>1.36192</v>
+        <v>1.36195</v>
       </c>
       <c r="N48" t="n">
         <v>1.73876</v>
@@ -4519,7 +4519,7 @@
         <v>0.0195</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0489723683382231</v>
+        <v>0.0489756101526811</v>
       </c>
       <c r="H51" t="n">
         <v>0.486</v>
@@ -4596,7 +4596,7 @@
         <v>0.0195</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0489723683382231</v>
+        <v>0.0489756101526811</v>
       </c>
       <c r="H52" t="n">
         <v>0.486</v>
@@ -4758,7 +4758,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0249336010986137</v>
+        <v>0.0249357435885938</v>
       </c>
       <c r="H54" t="n">
         <v>0.381</v>
@@ -4839,7 +4839,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0249336010986137</v>
+        <v>0.0249357435885938</v>
       </c>
       <c r="H55" t="n">
         <v>0.381</v>
@@ -5260,7 +5260,7 @@
         <v>0.00615</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0861570692648771</v>
+        <v>0.0861655427125297</v>
       </c>
       <c r="H60" t="n">
         <v>2.75983290749729</v>
@@ -5341,7 +5341,7 @@
         <v>0.00615</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0861570692648771</v>
+        <v>0.0861655427125297</v>
       </c>
       <c r="H61" t="n">
         <v>2.75983290749729</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.9095</v>
+        <v>0.9096</v>
       </c>
       <c r="G64" t="n">
-        <v>1.0562037037037</v>
+        <v>1.0561962962963</v>
       </c>
       <c r="H64" t="n">
         <v>4.038</v>
@@ -5591,13 +5591,13 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.609</v>
+        <v>0.6092</v>
       </c>
       <c r="M64" t="n">
-        <v>1.39832</v>
+        <v>1.39845</v>
       </c>
       <c r="N64" t="n">
-        <v>1.77894</v>
+        <v>1.77853</v>
       </c>
       <c r="O64" t="n">
         <v>1841340</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9095</v>
+        <v>0.9096</v>
       </c>
       <c r="G65" t="n">
-        <v>1.0562037037037</v>
+        <v>1.0561962962963</v>
       </c>
       <c r="H65" t="n">
         <v>4.038</v>
@@ -5668,13 +5668,13 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.609</v>
+        <v>0.6092</v>
       </c>
       <c r="M65" t="n">
-        <v>1.39832</v>
+        <v>1.39845</v>
       </c>
       <c r="N65" t="n">
-        <v>1.77894</v>
+        <v>1.77853</v>
       </c>
       <c r="O65" t="n">
         <v>1841340</v>
@@ -5888,7 +5888,7 @@
         <v>0.019</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0491945905604453</v>
+        <v>0.0491978323749033</v>
       </c>
       <c r="H68" t="n">
         <v>0.486</v>
@@ -5965,7 +5965,7 @@
         <v>0.019</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0491945905604453</v>
+        <v>0.0491978323749033</v>
       </c>
       <c r="H69" t="n">
         <v>0.486</v>
@@ -6127,13 +6127,13 @@
         <v>3.18</v>
       </c>
       <c r="G71" t="n">
-        <v>3.42001363619949</v>
+        <v>3.51837951161958</v>
       </c>
       <c r="H71" t="n">
-        <v>7.74812751092492</v>
+        <v>8.91593817027368</v>
       </c>
       <c r="I71" t="n">
-        <v>6.9257</v>
+        <v>7.43402</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -6144,7 +6144,7 @@
         <v>5.1568</v>
       </c>
       <c r="N71" t="n">
-        <v>5.9157</v>
+        <v>6.98956</v>
       </c>
       <c r="O71" t="n">
         <v>1841340</v>
@@ -6208,7 +6208,7 @@
         <v>0.008</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0106309654732902</v>
+        <v>0.0106336164332747</v>
       </c>
       <c r="H72" t="n">
         <v>0.07099999999999999</v>
@@ -6289,7 +6289,7 @@
         <v>0.008</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0106309654732902</v>
+        <v>0.0106336164332747</v>
       </c>
       <c r="H73" t="n">
         <v>0.07099999999999999</v>
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.00304</v>
+        <v>0.00315</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0118148606673867</v>
+        <v>0.0118390416160544</v>
       </c>
       <c r="H79" t="n">
         <v>0.247373950523947</v>
@@ -6798,7 +6798,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00172</v>
+        <v>0.00178</v>
       </c>
       <c r="M79" t="n">
         <v>0.01241</v>
@@ -6865,10 +6865,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.00304</v>
+        <v>0.00315</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0118148606673867</v>
+        <v>0.0118390416160544</v>
       </c>
       <c r="H80" t="n">
         <v>0.247373950523947</v>
@@ -6879,7 +6879,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00172</v>
+        <v>0.00178</v>
       </c>
       <c r="M80" t="n">
         <v>0.01241</v>
@@ -7107,13 +7107,13 @@
         <v>0.898</v>
       </c>
       <c r="G83" t="n">
-        <v>0.963854545454545</v>
+        <v>0.963847272727273</v>
       </c>
       <c r="H83" t="n">
         <v>3.37</v>
       </c>
       <c r="I83" t="n">
-        <v>1.692</v>
+        <v>1.69188</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7121,10 +7121,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="M83" t="n">
-        <v>1.35665</v>
+        <v>1.35666</v>
       </c>
       <c r="N83" t="n">
-        <v>1.5579</v>
+        <v>1.55785</v>
       </c>
       <c r="O83" t="n">
         <v>1841340</v>
@@ -7184,13 +7184,13 @@
         <v>0.898</v>
       </c>
       <c r="G84" t="n">
-        <v>0.963854545454545</v>
+        <v>0.963847272727273</v>
       </c>
       <c r="H84" t="n">
         <v>3.37</v>
       </c>
       <c r="I84" t="n">
-        <v>1.692</v>
+        <v>1.69188</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -7198,10 +7198,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="M84" t="n">
-        <v>1.35665</v>
+        <v>1.35666</v>
       </c>
       <c r="N84" t="n">
-        <v>1.5579</v>
+        <v>1.55785</v>
       </c>
       <c r="O84" t="n">
         <v>1841340</v>
@@ -7654,13 +7654,13 @@
         <v>3.48</v>
       </c>
       <c r="G90" t="n">
-        <v>3.39754034545984</v>
+        <v>3.58444172974781</v>
       </c>
       <c r="H90" t="n">
-        <v>7.74812751092492</v>
+        <v>9.026812221470941</v>
       </c>
       <c r="I90" t="n">
-        <v>6.81926</v>
+        <v>8.697229999999999</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
         <v>5.2624</v>
       </c>
       <c r="N90" t="n">
-        <v>5.90639</v>
+        <v>7.391</v>
       </c>
       <c r="O90" t="n">
         <v>1841340</v>
@@ -7735,7 +7735,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0520658751818006</v>
+        <v>0.0520676883050109</v>
       </c>
       <c r="H91" t="n">
         <v>2.5</v>
@@ -7816,7 +7816,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0520658751818006</v>
+        <v>0.0520676883050109</v>
       </c>
       <c r="H92" t="n">
         <v>2.5</v>
@@ -8314,7 +8314,7 @@
         <v>0.00249</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0076574091119822</v>
+        <v>0.0076906039452023</v>
       </c>
       <c r="H98" t="n">
         <v>0.148613621320959</v>
@@ -8325,7 +8325,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00183</v>
+        <v>0.00191</v>
       </c>
       <c r="M98" t="n">
         <v>0.01074</v>
@@ -8395,7 +8395,7 @@
         <v>0.00249</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0076574091119822</v>
+        <v>0.0076906039452023</v>
       </c>
       <c r="H99" t="n">
         <v>0.148613621320959</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00183</v>
+        <v>0.00191</v>
       </c>
       <c r="M99" t="n">
         <v>0.01074</v>
@@ -8631,16 +8631,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.921</v>
+        <v>0.9212</v>
       </c>
       <c r="G102" t="n">
-        <v>0.935220338983051</v>
+        <v>0.935213559322034</v>
       </c>
       <c r="H102" t="n">
         <v>2.68</v>
       </c>
       <c r="I102" t="n">
-        <v>1.64565</v>
+        <v>1.64538</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
         <v>0.53</v>
       </c>
       <c r="M102" t="n">
-        <v>1.36017</v>
+        <v>1.36022</v>
       </c>
       <c r="N102" t="n">
         <v>1.5123</v>
@@ -8708,16 +8708,16 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.921</v>
+        <v>0.9212</v>
       </c>
       <c r="G103" t="n">
-        <v>0.935220338983051</v>
+        <v>0.935213559322034</v>
       </c>
       <c r="H103" t="n">
         <v>2.68</v>
       </c>
       <c r="I103" t="n">
-        <v>1.64565</v>
+        <v>1.64538</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -8725,7 +8725,7 @@
         <v>0.53</v>
       </c>
       <c r="M103" t="n">
-        <v>1.36017</v>
+        <v>1.36022</v>
       </c>
       <c r="N103" t="n">
         <v>1.5123</v>
@@ -9258,13 +9258,13 @@
         <v>3.24</v>
       </c>
       <c r="G110" t="n">
-        <v>3.11834578500437</v>
+        <v>3.27253942704195</v>
       </c>
       <c r="H110" t="n">
-        <v>7.74812751092492</v>
+        <v>9.026812221470941</v>
       </c>
       <c r="I110" t="n">
-        <v>6.4442</v>
+        <v>8.18693</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9275,7 +9275,7 @@
         <v>5.024</v>
       </c>
       <c r="N110" t="n">
-        <v>5.89831</v>
+        <v>7.12337</v>
       </c>
       <c r="O110" t="n">
         <v>1841340</v>
@@ -9339,7 +9339,7 @@
         <v>0.008</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0525103986933553</v>
+        <v>0.052513071195733</v>
       </c>
       <c r="H111" t="n">
         <v>2.5</v>
@@ -9420,7 +9420,7 @@
         <v>0.008</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0525103986933553</v>
+        <v>0.052513071195733</v>
       </c>
       <c r="H112" t="n">
         <v>2.5</v>
@@ -9915,10 +9915,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.00255</v>
+        <v>0.00262</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0070243063054549</v>
+        <v>0.0070692606149319</v>
       </c>
       <c r="H118" t="n">
         <v>0.148613621320959</v>
@@ -9929,7 +9929,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.00196</v>
+        <v>0.00203</v>
       </c>
       <c r="M118" t="n">
         <v>0.00518</v>
@@ -9996,10 +9996,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.00255</v>
+        <v>0.00262</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0070243063054549</v>
+        <v>0.0070692606149319</v>
       </c>
       <c r="H119" t="n">
         <v>0.148613621320959</v>
@@ -10010,7 +10010,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>0.00196</v>
+        <v>0.00203</v>
       </c>
       <c r="M119" t="n">
         <v>0.00518</v>
@@ -10312,16 +10312,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.924</v>
+        <v>0.92415</v>
       </c>
       <c r="G123" t="n">
-        <v>0.942155172413793</v>
+        <v>0.9421689655172411</v>
       </c>
       <c r="H123" t="n">
         <v>2.68</v>
       </c>
       <c r="I123" t="n">
-        <v>1.6498</v>
+        <v>1.6495</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -10329,7 +10329,7 @@
         <v>0.53</v>
       </c>
       <c r="M123" t="n">
-        <v>1.36204</v>
+        <v>1.3621</v>
       </c>
       <c r="N123" t="n">
         <v>1.5151</v>
@@ -10389,16 +10389,16 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.924</v>
+        <v>0.92415</v>
       </c>
       <c r="G124" t="n">
-        <v>0.942155172413793</v>
+        <v>0.9421689655172411</v>
       </c>
       <c r="H124" t="n">
         <v>2.68</v>
       </c>
       <c r="I124" t="n">
-        <v>1.6498</v>
+        <v>1.6495</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -10406,7 +10406,7 @@
         <v>0.53</v>
       </c>
       <c r="M124" t="n">
-        <v>1.36204</v>
+        <v>1.3621</v>
       </c>
       <c r="N124" t="n">
         <v>1.5151</v>
@@ -10939,13 +10939,13 @@
         <v>3.18</v>
       </c>
       <c r="G131" t="n">
-        <v>2.85666600442294</v>
+        <v>2.97628484804188</v>
       </c>
       <c r="H131" t="n">
-        <v>6.98</v>
+        <v>9.026812221470941</v>
       </c>
       <c r="I131" t="n">
-        <v>5.90047</v>
+        <v>7.19506</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -10956,7 +10956,7 @@
         <v>4.7295</v>
       </c>
       <c r="N131" t="n">
-        <v>5.69738</v>
+        <v>5.77471</v>
       </c>
       <c r="O131" t="n">
         <v>1841340</v>
@@ -11020,7 +11020,7 @@
         <v>0.008</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0513546724202906</v>
+        <v>0.0513576843798539</v>
       </c>
       <c r="H132" t="n">
         <v>2.5</v>
@@ -11101,7 +11101,7 @@
         <v>0.008</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0513546724202906</v>
+        <v>0.0513576843798539</v>
       </c>
       <c r="H133" t="n">
         <v>2.5</v>
@@ -11596,10 +11596,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00296</v>
+        <v>0.00308</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0077662744434032</v>
+        <v>0.0078197394140381</v>
       </c>
       <c r="H139" t="n">
         <v>0.148613621320959</v>
@@ -11613,7 +11613,7 @@
         <v>0.00249</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0073</v>
+        <v>0.0074</v>
       </c>
       <c r="N139" t="n">
         <v>0.01458</v>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00296</v>
+        <v>0.00308</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0077662744434032</v>
+        <v>0.0078197394140381</v>
       </c>
       <c r="H140" t="n">
         <v>0.148613621320959</v>
@@ -11694,7 +11694,7 @@
         <v>0.00249</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0073</v>
+        <v>0.0074</v>
       </c>
       <c r="N140" t="n">
         <v>0.01458</v>
@@ -11993,16 +11993,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.923</v>
+        <v>0.9233</v>
       </c>
       <c r="G144" t="n">
-        <v>0.93764406779661</v>
+        <v>0.937642372881356</v>
       </c>
       <c r="H144" t="n">
         <v>2.68</v>
       </c>
       <c r="I144" t="n">
-        <v>1.64565</v>
+        <v>1.64538</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -12070,16 +12070,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.923</v>
+        <v>0.9233</v>
       </c>
       <c r="G145" t="n">
-        <v>0.93764406779661</v>
+        <v>0.937642372881356</v>
       </c>
       <c r="H145" t="n">
         <v>2.68</v>
       </c>
       <c r="I145" t="n">
-        <v>1.64565</v>
+        <v>1.64538</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -12620,13 +12620,13 @@
         <v>2.59</v>
       </c>
       <c r="G152" t="n">
-        <v>2.57067337064632</v>
+        <v>2.63516977600947</v>
       </c>
       <c r="H152" t="n">
-        <v>6.98</v>
+        <v>9.026812221470941</v>
       </c>
       <c r="I152" t="n">
-        <v>5.90408</v>
+        <v>6.51643</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -12637,7 +12637,7 @@
         <v>4.707</v>
       </c>
       <c r="N152" t="n">
-        <v>5.66067</v>
+        <v>5.37595</v>
       </c>
       <c r="O152" t="n">
         <v>1841340</v>
@@ -12701,7 +12701,7 @@
         <v>0.008</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0512573391861577</v>
+        <v>0.0512604030760583</v>
       </c>
       <c r="H153" t="n">
         <v>2.5</v>
@@ -12782,7 +12782,7 @@
         <v>0.008</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0512573391861577</v>
+        <v>0.0512604030760583</v>
       </c>
       <c r="H154" t="n">
         <v>2.5</v>
@@ -13277,10 +13277,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.00356</v>
+        <v>0.00363</v>
       </c>
       <c r="G160" t="n">
-        <v>0.008034618246724599</v>
+        <v>0.0080845852256943</v>
       </c>
       <c r="H160" t="n">
         <v>0.148613621320959</v>
@@ -13291,7 +13291,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00324</v>
+        <v>0.00334</v>
       </c>
       <c r="M160" t="n">
         <v>0.00769</v>
@@ -13358,10 +13358,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.00356</v>
+        <v>0.00363</v>
       </c>
       <c r="G161" t="n">
-        <v>0.008034618246724599</v>
+        <v>0.0080845852256943</v>
       </c>
       <c r="H161" t="n">
         <v>0.148613621320959</v>
@@ -13372,7 +13372,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00324</v>
+        <v>0.00334</v>
       </c>
       <c r="M161" t="n">
         <v>0.00769</v>
@@ -13677,7 +13677,7 @@
         <v>0.867</v>
       </c>
       <c r="G165" t="n">
-        <v>0.909586206896552</v>
+        <v>0.909577586206897</v>
       </c>
       <c r="H165" t="n">
         <v>2.68</v>
@@ -13754,7 +13754,7 @@
         <v>0.867</v>
       </c>
       <c r="G166" t="n">
-        <v>0.909586206896552</v>
+        <v>0.909577586206897</v>
       </c>
       <c r="H166" t="n">
         <v>2.68</v>
@@ -14301,7 +14301,7 @@
         <v>0.007</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0508466810242101</v>
+        <v>0.0508485479198904</v>
       </c>
       <c r="H173" t="n">
         <v>2.5</v>
@@ -14382,7 +14382,7 @@
         <v>0.007</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0508466810242101</v>
+        <v>0.0508485479198904</v>
       </c>
       <c r="H174" t="n">
         <v>2.5</v>
@@ -14463,10 +14463,10 @@
         <v>195</v>
       </c>
       <c r="G175" t="n">
-        <v>684.28425208595</v>
+        <v>711.807212148162</v>
       </c>
       <c r="H175" t="n">
-        <v>5700</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I175" t="n">
         <v>2900</v>
@@ -14548,10 +14548,10 @@
         <v>195</v>
       </c>
       <c r="G176" t="n">
-        <v>684.28425208595</v>
+        <v>711.807212148162</v>
       </c>
       <c r="H176" t="n">
-        <v>5700</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I176" t="n">
         <v>2900</v>
@@ -14633,10 +14633,10 @@
         <v>195</v>
       </c>
       <c r="G177" t="n">
-        <v>684.28425208595</v>
+        <v>711.807212148162</v>
       </c>
       <c r="H177" t="n">
-        <v>5700</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I177" t="n">
         <v>2900</v>
@@ -14718,10 +14718,10 @@
         <v>195</v>
       </c>
       <c r="G178" t="n">
-        <v>684.28425208595</v>
+        <v>711.807212148162</v>
       </c>
       <c r="H178" t="n">
-        <v>5700</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I178" t="n">
         <v>2900</v>
@@ -14877,10 +14877,10 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.00437</v>
+        <v>0.00445</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0094871212925694</v>
+        <v>0.0095186020403124</v>
       </c>
       <c r="H180" t="n">
         <v>0.148613621320959</v>
@@ -14891,7 +14891,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.00692</v>
+        <v>0.00707</v>
       </c>
       <c r="M180" t="n">
         <v>0.00919</v>
@@ -14958,10 +14958,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.00437</v>
+        <v>0.00445</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0094871212925694</v>
+        <v>0.0095186020403124</v>
       </c>
       <c r="H181" t="n">
         <v>0.148613621320959</v>
@@ -14972,7 +14972,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00692</v>
+        <v>0.00707</v>
       </c>
       <c r="M181" t="n">
         <v>0.00919</v>
@@ -15277,7 +15277,7 @@
         <v>0.842</v>
       </c>
       <c r="G185" t="n">
-        <v>0.8774310344827591</v>
+        <v>0.877422413793103</v>
       </c>
       <c r="H185" t="n">
         <v>2.68</v>
@@ -15354,7 +15354,7 @@
         <v>0.842</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8774310344827591</v>
+        <v>0.877422413793103</v>
       </c>
       <c r="H186" t="n">
         <v>2.68</v>
@@ -15901,7 +15901,7 @@
         <v>0.007</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0075880603345549</v>
+        <v>0.0075899272302352</v>
       </c>
       <c r="H193" t="n">
         <v>0.018</v>
@@ -15982,7 +15982,7 @@
         <v>0.007</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0075880603345549</v>
+        <v>0.0075899272302352</v>
       </c>
       <c r="H194" t="n">
         <v>0.018</v>
@@ -16063,10 +16063,10 @@
         <v>230</v>
       </c>
       <c r="G195" t="n">
-        <v>619.611838292847</v>
+        <v>647.134798355059</v>
       </c>
       <c r="H195" t="n">
-        <v>4711.48662098512</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I195" t="n">
         <v>2838.8</v>
@@ -16148,10 +16148,10 @@
         <v>230</v>
       </c>
       <c r="G196" t="n">
-        <v>619.611838292847</v>
+        <v>647.134798355059</v>
       </c>
       <c r="H196" t="n">
-        <v>4711.48662098512</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I196" t="n">
         <v>2838.8</v>
@@ -16233,10 +16233,10 @@
         <v>230</v>
       </c>
       <c r="G197" t="n">
-        <v>619.611838292847</v>
+        <v>647.134798355059</v>
       </c>
       <c r="H197" t="n">
-        <v>4711.48662098512</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I197" t="n">
         <v>2838.8</v>
@@ -16318,10 +16318,10 @@
         <v>230</v>
       </c>
       <c r="G198" t="n">
-        <v>619.611838292847</v>
+        <v>647.134798355059</v>
       </c>
       <c r="H198" t="n">
-        <v>4711.48662098512</v>
+        <v>6307.8183045934</v>
       </c>
       <c r="I198" t="n">
         <v>2838.8</v>
@@ -16480,7 +16480,7 @@
         <v>0.00593</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0077729511805269</v>
+        <v>0.0077924610417177</v>
       </c>
       <c r="H200" t="n">
         <v>0.0306648100833032</v>
@@ -16561,7 +16561,7 @@
         <v>0.00593</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0077729511805269</v>
+        <v>0.0077924610417177</v>
       </c>
       <c r="H201" t="n">
         <v>0.0306648100833032</v>
@@ -16877,7 +16877,7 @@
         <v>0.867</v>
       </c>
       <c r="G205" t="n">
-        <v>0.889137931034483</v>
+        <v>0.889129310344828</v>
       </c>
       <c r="H205" t="n">
         <v>1.684</v>
@@ -16954,7 +16954,7 @@
         <v>0.867</v>
       </c>
       <c r="G206" t="n">
-        <v>0.889137931034483</v>
+        <v>0.889129310344828</v>
       </c>
       <c r="H206" t="n">
         <v>1.684</v>
@@ -17313,6 +17313,1606 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.3566</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>60</v>
+      </c>
+      <c r="G212" t="n">
+        <v>73.78970588235291</v>
+      </c>
+      <c r="H212" t="n">
+        <v>180</v>
+      </c>
+      <c r="I212" t="n">
+        <v>163</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>75</v>
+      </c>
+      <c r="M212" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="N212" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.0075312754077773</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.01555</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.01094</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0075312754077773</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.01555</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.01094</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>230</v>
+      </c>
+      <c r="G215" t="n">
+        <v>624.098615332092</v>
+      </c>
+      <c r="H215" t="n">
+        <v>6307.8183045934</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2500.85</v>
+      </c>
+      <c r="J215" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K215" t="n">
+        <v>47.4576271186441</v>
+      </c>
+      <c r="L215" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1100.94</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2104.2</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>230</v>
+      </c>
+      <c r="G216" t="n">
+        <v>624.098615332092</v>
+      </c>
+      <c r="H216" t="n">
+        <v>6307.8183045934</v>
+      </c>
+      <c r="I216" t="n">
+        <v>2500.85</v>
+      </c>
+      <c r="J216" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K216" t="n">
+        <v>47.4576271186441</v>
+      </c>
+      <c r="L216" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1100.94</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2104.2</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>230</v>
+      </c>
+      <c r="G217" t="n">
+        <v>624.098615332092</v>
+      </c>
+      <c r="H217" t="n">
+        <v>6307.8183045934</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2500.85</v>
+      </c>
+      <c r="J217" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K217" t="n">
+        <v>47.4576271186441</v>
+      </c>
+      <c r="L217" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1100.94</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2104.2</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>230</v>
+      </c>
+      <c r="G218" t="n">
+        <v>624.098615332092</v>
+      </c>
+      <c r="H218" t="n">
+        <v>6307.8183045934</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2500.85</v>
+      </c>
+      <c r="J218" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K218" t="n">
+        <v>47.4576271186441</v>
+      </c>
+      <c r="L218" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1100.94</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2104.2</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>97</v>
+      </c>
+      <c r="G219" t="n">
+        <v>92.398</v>
+      </c>
+      <c r="H219" t="n">
+        <v>98.89</v>
+      </c>
+      <c r="I219" t="n">
+        <v>98.89</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>97</v>
+      </c>
+      <c r="M219" t="n">
+        <v>98.6135</v>
+      </c>
+      <c r="N219" t="n">
+        <v>98.89</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.00707</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.008353718729675901</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.0306648100833032</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.02268</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.00848</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.01199</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.01639</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.00707</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.008353718729675901</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.0306648100833032</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.02268</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.00848</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.01199</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.01639</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.870372881355932</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.4355</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.7045</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1.2241</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1.3678</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.870372881355932</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.4355</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.7045</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1.2241</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1.3678</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>4.853</v>
+      </c>
+      <c r="G224" t="n">
+        <v>4.9264</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="I224" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>4.853</v>
+      </c>
+      <c r="M224" t="n">
+        <v>5.8055</v>
+      </c>
+      <c r="N224" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.892194915254237</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1.48045</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.7215</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1.24652</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1.40322</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.892194915254237</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.48045</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.7215</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1.24652</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1.40322</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.04661016949153</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.5855</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1.3394</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1.4578</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.04661016949153</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.5855</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1.3394</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1.4578</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0267118644067797</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.0873</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.03047</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.07557999999999999</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0267118644067797</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.0873</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.03047</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.07557999999999999</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
+++ b/state_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
@@ -570,10 +570,10 @@
         <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96331059344593</v>
+        <v>1.99573948698728</v>
       </c>
       <c r="H2" t="n">
-        <v>8.81262839682379</v>
+        <v>9.81792409660577</v>
       </c>
       <c r="I2" t="n">
         <v>3.4825</v>
@@ -6127,24 +6127,24 @@
         <v>3.18</v>
       </c>
       <c r="G71" t="n">
-        <v>3.51837951161958</v>
+        <v>3.4203667927678</v>
       </c>
       <c r="H71" t="n">
-        <v>8.91593817027368</v>
+        <v>6.98</v>
       </c>
       <c r="I71" t="n">
-        <v>7.43402</v>
+        <v>6.66718</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>3.165</v>
+        <v>3.83</v>
       </c>
       <c r="M71" t="n">
-        <v>5.1568</v>
+        <v>5.1429</v>
       </c>
       <c r="N71" t="n">
-        <v>6.98956</v>
+        <v>6.19963</v>
       </c>
       <c r="O71" t="n">
         <v>1841340</v>
@@ -7654,24 +7654,24 @@
         <v>3.48</v>
       </c>
       <c r="G90" t="n">
-        <v>3.58444172974781</v>
+        <v>3.58896082748945</v>
       </c>
       <c r="H90" t="n">
-        <v>9.026812221470941</v>
+        <v>12.2143367313499</v>
       </c>
       <c r="I90" t="n">
-        <v>8.697229999999999</v>
+        <v>6.93685</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>3.18</v>
+        <v>3.48</v>
       </c>
       <c r="M90" t="n">
-        <v>5.2624</v>
+        <v>5.20861</v>
       </c>
       <c r="N90" t="n">
-        <v>7.391</v>
+        <v>6.62194</v>
       </c>
       <c r="O90" t="n">
         <v>1841340</v>
@@ -9258,24 +9258,24 @@
         <v>3.24</v>
       </c>
       <c r="G110" t="n">
-        <v>3.27253942704195</v>
+        <v>3.2762676826788</v>
       </c>
       <c r="H110" t="n">
-        <v>9.026812221470941</v>
+        <v>12.2143367313499</v>
       </c>
       <c r="I110" t="n">
-        <v>8.18693</v>
+        <v>6.83616</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>3.265</v>
+        <v>3.415</v>
       </c>
       <c r="M110" t="n">
         <v>5.024</v>
       </c>
       <c r="N110" t="n">
-        <v>7.12337</v>
+        <v>6.3404</v>
       </c>
       <c r="O110" t="n">
         <v>1841340</v>
@@ -10936,27 +10936,27 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="G131" t="n">
-        <v>2.97628484804188</v>
+        <v>3.12588870857912</v>
       </c>
       <c r="H131" t="n">
-        <v>9.026812221470941</v>
+        <v>12.2143367313499</v>
       </c>
       <c r="I131" t="n">
-        <v>7.19506</v>
+        <v>6.82178</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="M131" t="n">
-        <v>4.7295</v>
+        <v>4.9696</v>
       </c>
       <c r="N131" t="n">
-        <v>5.77471</v>
+        <v>6.30018</v>
       </c>
       <c r="O131" t="n">
         <v>1841340</v>
@@ -12620,13 +12620,13 @@
         <v>2.59</v>
       </c>
       <c r="G152" t="n">
-        <v>2.63516977600947</v>
+        <v>2.74011331396238</v>
       </c>
       <c r="H152" t="n">
-        <v>9.026812221470941</v>
+        <v>12.2143367313499</v>
       </c>
       <c r="I152" t="n">
-        <v>6.51643</v>
+        <v>6.74287</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -12637,7 +12637,7 @@
         <v>4.707</v>
       </c>
       <c r="N152" t="n">
-        <v>5.37595</v>
+        <v>5.84393</v>
       </c>
       <c r="O152" t="n">
         <v>1841340</v>
@@ -14463,10 +14463,10 @@
         <v>195</v>
       </c>
       <c r="G175" t="n">
-        <v>711.807212148162</v>
+        <v>688.4108651970801</v>
       </c>
       <c r="H175" t="n">
-        <v>6307.8183045934</v>
+        <v>5700</v>
       </c>
       <c r="I175" t="n">
         <v>2900</v>
@@ -14548,10 +14548,10 @@
         <v>195</v>
       </c>
       <c r="G176" t="n">
-        <v>711.807212148162</v>
+        <v>688.4108651970801</v>
       </c>
       <c r="H176" t="n">
-        <v>6307.8183045934</v>
+        <v>5700</v>
       </c>
       <c r="I176" t="n">
         <v>2900</v>
@@ -14633,10 +14633,10 @@
         <v>195</v>
       </c>
       <c r="G177" t="n">
-        <v>711.807212148162</v>
+        <v>688.4108651970801</v>
       </c>
       <c r="H177" t="n">
-        <v>6307.8183045934</v>
+        <v>5700</v>
       </c>
       <c r="I177" t="n">
         <v>2900</v>
@@ -14718,10 +14718,10 @@
         <v>195</v>
       </c>
       <c r="G178" t="n">
-        <v>711.807212148162</v>
+        <v>688.4108651970801</v>
       </c>
       <c r="H178" t="n">
-        <v>6307.8183045934</v>
+        <v>5700</v>
       </c>
       <c r="I178" t="n">
         <v>2900</v>
@@ -16063,10 +16063,10 @@
         <v>230</v>
       </c>
       <c r="G195" t="n">
-        <v>647.134798355059</v>
+        <v>623.738451403977</v>
       </c>
       <c r="H195" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I195" t="n">
         <v>2838.8</v>
@@ -16148,10 +16148,10 @@
         <v>230</v>
       </c>
       <c r="G196" t="n">
-        <v>647.134798355059</v>
+        <v>623.738451403977</v>
       </c>
       <c r="H196" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I196" t="n">
         <v>2838.8</v>
@@ -16233,10 +16233,10 @@
         <v>230</v>
       </c>
       <c r="G197" t="n">
-        <v>647.134798355059</v>
+        <v>623.738451403977</v>
       </c>
       <c r="H197" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I197" t="n">
         <v>2838.8</v>
@@ -16318,10 +16318,10 @@
         <v>230</v>
       </c>
       <c r="G198" t="n">
-        <v>647.134798355059</v>
+        <v>623.738451403977</v>
       </c>
       <c r="H198" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I198" t="n">
         <v>2838.8</v>
@@ -17663,10 +17663,10 @@
         <v>230</v>
       </c>
       <c r="G215" t="n">
-        <v>624.098615332092</v>
+        <v>601.098816634418</v>
       </c>
       <c r="H215" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I215" t="n">
         <v>2500.85</v>
@@ -17748,10 +17748,10 @@
         <v>230</v>
       </c>
       <c r="G216" t="n">
-        <v>624.098615332092</v>
+        <v>601.098816634418</v>
       </c>
       <c r="H216" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I216" t="n">
         <v>2500.85</v>
@@ -17833,10 +17833,10 @@
         <v>230</v>
       </c>
       <c r="G217" t="n">
-        <v>624.098615332092</v>
+        <v>601.098816634418</v>
       </c>
       <c r="H217" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I217" t="n">
         <v>2500.85</v>
@@ -17918,10 +17918,10 @@
         <v>230</v>
       </c>
       <c r="G218" t="n">
-        <v>624.098615332092</v>
+        <v>601.098816634418</v>
       </c>
       <c r="H218" t="n">
-        <v>6307.8183045934</v>
+        <v>4950.83018143065</v>
       </c>
       <c r="I218" t="n">
         <v>2500.85</v>
